--- a/4_Automation/demo2.xlsx
+++ b/4_Automation/demo2.xlsx
@@ -13,23 +13,60 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <pivotCaches>
+    <pivotCache cacheId="161" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Hello!</t>
   </si>
   <si>
     <t>Excel.</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Cell D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄標籤</t>
+  </si>
+  <si>
+    <t>總計</t>
+  </si>
+  <si>
+    <t>計數 - a2</t>
+  </si>
+  <si>
+    <t>列標籤</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,6 +79,67 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00FF00"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -68,9 +166,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -79,6 +210,101 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="11004076" refreshedDate="43958.589640972219" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="2">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C3" sheet="新表"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="A1" numFmtId="0">
+      <sharedItems count="2">
+        <s v="B1"/>
+        <s v="C1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="a2" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="32" maxValue="32"/>
+    </cacheField>
+    <cacheField name="13" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="33" maxValue="33" count="2">
+        <s v="B3"/>
+        <n v="33"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
+  <r>
+    <x v="0"/>
+    <s v="b2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="32"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表2" cacheId="161" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:J7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="計數 - a2" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,12 +592,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.25" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25.5">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6">
+        <v>33</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="G5" s="11">
+        <v>33</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="G6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="G7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:D6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
